--- a/medicine/Psychotrope/Mont_d'Or_chaud/Mont_d'Or_chaud.xlsx
+++ b/medicine/Psychotrope/Mont_d'Or_chaud/Mont_d'Or_chaud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mont_d%27Or_chaud</t>
+          <t>Mont_d'Or_chaud</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le mont d'Or chaud, boîte chaude, fondue au Mont d'Or ou vacherin Mont-d'Or chaud (canton de Vaud, Suisse)[1] est une recette de cuisine de fondue au fromage de la cuisine franc-comtoise en Bourgogne-Franche-Comté, et de la cuisine vaudoise en Suisse[2], à la saison du mont d'Or / Vacherin Mont-d'Or, entre août et mars.
+Le mont d'Or chaud, boîte chaude, fondue au Mont d'Or ou vacherin Mont-d'Or chaud (canton de Vaud, Suisse) est une recette de cuisine de fondue au fromage de la cuisine franc-comtoise en Bourgogne-Franche-Comté, et de la cuisine vaudoise en Suisse, à la saison du mont d'Or / Vacherin Mont-d'Or, entre août et mars.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mont_d%27Or_chaud</t>
+          <t>Mont_d'Or_chaud</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mont d'Or est traditionnellement mis au four à 180 °C pendant 30 min (ou plus pour le faire dorer) directement dans sa boite en écorce d'épicéa et sa sangle également en epicea (ou dans un bol à la façon d'une assiette comtoise) pour faire fondre le fromage, avec éventuellement un peu de vin blanc sec, et quelques morceaux d'ail, dans un trou creusé au centre du fromage.
-Ce plat se déguste a la cuillère et peut être servi avec du pain de campagne, des pommes de terre en robe des champs, une salade verte, et éventuellement avec de la charcuterie régionale franc-comtoise  jambon, viande des Grisons, brési, saucisse de Montbéliard ou de Morteau[3].
+Ce plat se déguste a la cuillère et peut être servi avec du pain de campagne, des pommes de terre en robe des champs, une salade verte, et éventuellement avec de la charcuterie régionale franc-comtoise  jambon, viande des Grisons, brési, saucisse de Montbéliard ou de Morteau.
 </t>
         </is>
       </c>
